--- a/src/test/resources/demo.xlsx
+++ b/src/test/resources/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangshuai/IdeaProjects/chimm_excel/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5028BC20-60D3-AD45-93F0-B469FFC05534}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8906E04E-37D3-2B42-9EB0-2A7F7E040EF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="883" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -785,6 +785,19 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -798,7 +811,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,63 +861,111 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -912,59 +973,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1288,7 +1304,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="C14" sqref="C14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -1300,65 +1316,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1377,8 +1393,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="34" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:6" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1398,70 +1414,70 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="47"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="39"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="40"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1476,27 +1492,27 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="56"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="51" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A2:B3"/>
@@ -1508,6 +1524,7 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/demo.xlsx
+++ b/src/test/resources/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangshuai/IdeaProjects/chimm_excel/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8906E04E-37D3-2B42-9EB0-2A7F7E040EF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837CD756-9E1F-3945-A4F1-35D6C62C32F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="883" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>${title}</t>
   </si>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>${gradesRanking.top1.totalScore}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>${gradesRanking.top1.chineseScore}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -89,14 +85,6 @@
   </si>
   <si>
     <t>${gradesRanking.top3.name}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${gradesRanking.top2.totalScore}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${gradesRanking.top3.totalScore}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -811,7 +799,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,13 +807,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1303,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:F14"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -1316,200 +1298,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17">
+        <f>SUM(D4:F4)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17">
+        <f t="shared" ref="C5:C6" si="0">SUM(D5:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="A7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
+      <c r="A10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
+      <c r="C11" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
+      <c r="A14" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/src/test/resources/demo.xlsx
+++ b/src/test/resources/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangshuai/IdeaProjects/chimm_excel/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837CD756-9E1F-3945-A4F1-35D6C62C32F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC37FDB0-E625-924D-9788-344AACD233D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="883" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>

--- a/src/test/resources/demo.xlsx
+++ b/src/test/resources/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangshuai/IdeaProjects/chimm_excel/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC37FDB0-E625-924D-9788-344AACD233D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E8116B-B73C-344F-87AC-B02E5738A70A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="883" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,14 +232,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -799,7 +791,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,12 +927,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,7 +1272,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -1438,19 +1424,19 @@
       <c r="A10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="38" t="s">
@@ -1461,8 +1447,8 @@
       <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
@@ -1489,12 +1475,12 @@
         <v>33</v>
       </c>
       <c r="B14" s="42"/>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/src/test/resources/demo.xlsx
+++ b/src/test/resources/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangshuai/IdeaProjects/chimm_excel/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E8116B-B73C-344F-87AC-B02E5738A70A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33A2FBE-5B4B-5B4D-B69E-0DF7FF353C21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="883" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:F10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -1465,7 +1465,10 @@
     <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="11">
+        <f>SUM(D13:F13)</f>
+        <v>0</v>
+      </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="25"/>

--- a/src/test/resources/demo.xlsx
+++ b/src/test/resources/demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangshuai/IdeaProjects/chimm_excel/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33A2FBE-5B4B-5B4D-B69E-0DF7FF353C21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55D4F8A-F761-024F-BF4B-12CFFBFF4AB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="883" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" tabRatio="883" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="3" r:id="rId1"/>
@@ -791,7 +791,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,9 +855,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1272,7 +1269,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -1284,30 +1281,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
@@ -1385,70 +1382,70 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="50"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
@@ -1463,27 +1460,27 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="11">
         <f>SUM(D13:F13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="51" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/src/test/resources/demo.xlsx
+++ b/src/test/resources/demo.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangshuai/IdeaProjects/chimm_excel/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6935C9AE-7301-DE4F-B9F8-6F55825F0265}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17940" tabRatio="883"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" tabRatio="883" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="sheet1 (2)" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
   <si>
     <t>${title}</t>
   </si>
@@ -121,16 +135,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,12 +151,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -154,6 +166,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -162,6 +175,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -169,347 +183,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="49">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1031,266 +731,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1299,212 +883,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 11" xfId="49"/>
-    <cellStyle name="常规 13" xfId="50"/>
+    <cellStyle name="常规 11" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 13" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00F8F8F8"/>
-      <color rgb="00E0ECFA"/>
-      <color rgb="00F0F0F0"/>
-      <color rgb="00EEEEEE"/>
-      <color rgb="00F6F5C5"/>
-      <color rgb="00C4D9D0"/>
-      <color rgb="00D2E2DB"/>
-      <color rgb="00D6E5DE"/>
-      <color rgb="00E3EEE9"/>
+      <color rgb="FFF8F8F8"/>
+      <color rgb="FFE0ECFA"/>
+      <color rgb="FFF0F0F0"/>
+      <color rgb="FFEEEEEE"/>
+      <color rgb="FFF6F5C5"/>
+      <color rgb="FFC4D9D0"/>
+      <color rgb="FFD2E2DB"/>
+      <color rgb="FFD6E5DE"/>
+      <color rgb="FFE3EEE9"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1791,227 +1202,227 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+    <sheetView zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="11.25" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.6666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.6666666666667" style="2" customWidth="1"/>
-    <col min="3" max="6" width="12.6666666666667" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.6666666666667" style="2"/>
+    <col min="1" max="1" width="10.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="36" customHeight="1">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:6">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:6">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="8">
         <f>SUM(D4:F4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:6">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="8">
         <f t="shared" ref="C5:C6" si="0">SUM(D5:F5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:6">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:6">
-      <c r="A8" s="27" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:6">
-      <c r="A9" s="32" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:6">
-      <c r="A10" s="23" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:6">
-      <c r="A11" s="35" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:6">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:6">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44">
+    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24">
         <f>SUM(D13:F13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="1:6">
-      <c r="A14" s="47" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1">
+      <c r="A14" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2020,15 +1431,253 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A2:B3"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A19B58-97E7-884E-AAB2-51A81C091CC6}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="36" customHeight="1" thickBot="1">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8">
+        <f>SUM(D4:F4)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" ref="C5:C6" si="0">SUM(D5:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24">
+        <f>SUM(D13:F13)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="A14" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/demo.xlsx
+++ b/src/test/resources/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangshuai/IdeaProjects/chimm_excel/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6935C9AE-7301-DE4F-B9F8-6F55825F0265}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A706C2-C62F-8649-AFF2-79172184F35D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" tabRatio="883" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>${title}</t>
   </si>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>${principalComment}</t>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -209,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -731,6 +735,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -739,7 +811,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,19 +889,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,35 +964,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1223,30 +1334,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1327,67 +1438,67 @@
       <c r="A7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="19" t="s">
         <v>3</v>
       </c>
@@ -1413,31 +1524,31 @@
       <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="A2:B3"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1446,236 +1557,257 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A19B58-97E7-884E-AAB2-51A81C091CC6}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.6640625" style="2"/>
+    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
+    <col min="4" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:7" ht="36" customHeight="1" thickBot="1">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="3" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8">
-        <f>SUM(D4:F4)</f>
+      <c r="C4" s="27"/>
+      <c r="D4" s="8">
+        <f>SUM(E4:G4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+    <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8">
-        <f t="shared" ref="C5:C6" si="0">SUM(D5:F5)</f>
+      <c r="C5" s="27"/>
+      <c r="D5" s="8">
+        <f t="shared" ref="D5:D6" si="0">SUM(E5:G5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="52"/>
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="37" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="A11" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="19" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1">
+      <c r="A12" s="49"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="E12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="F12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+    <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="22"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="24">
-        <f>SUM(D13:F13)</f>
+      <c r="C13" s="53"/>
+      <c r="D13" s="24">
+        <f>SUM(E13:G13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="25"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="32" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A14" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B10:F10"/>
+  <mergeCells count="14">
+    <mergeCell ref="B10:G10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="D11:G11"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
